--- a/Movimentações.xlsx
+++ b/Movimentações.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Averame\code\transacoes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{944483AF-CE2C-4A7A-BB00-A128A2854DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EAFF415-7D7F-493C-86B7-B831CA08EE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{297D6FF7-5FB8-45D5-B400-F8E1D275DB09}"/>
+    <workbookView xWindow="1800" yWindow="1185" windowWidth="21600" windowHeight="11295" xr2:uid="{297D6FF7-5FB8-45D5-B400-F8E1D275DB09}"/>
   </bookViews>
   <sheets>
     <sheet name="Offshore" sheetId="1" r:id="rId1"/>
@@ -269,7 +269,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -282,8 +282,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -320,11 +326,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -375,6 +392,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,6 +427,37 @@
       </font>
       <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="dotted">
+          <color rgb="FFBFBFBF"/>
+        </top>
+        <bottom style="dotted">
+          <color rgb="FFBFBFBF"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Albert Sans"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -425,7 +485,7 @@
         <name val="Albert Sans"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -454,63 +514,6 @@
         <name val="Albert Sans"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Albert Sans"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Albert Sans"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="4" formatCode="#,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Albert Sans"/>
-        <scheme val="none"/>
-      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -518,6 +521,32 @@
         <top style="dotted">
           <color rgb="FFBFBFBF"/>
         </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Albert Sans"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="dotted">
+          <color rgb="FFBFBFBF"/>
+        </top>
         <bottom style="dotted">
           <color rgb="FFBFBFBF"/>
         </bottom>
@@ -539,6 +568,13 @@
         <name val="Albert Sans"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.14999847407452621"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -546,9 +582,7 @@
         <top style="dotted">
           <color rgb="FFBFBFBF"/>
         </top>
-        <bottom style="dotted">
-          <color rgb="FFBFBFBF"/>
-        </bottom>
+        <bottom/>
         <vertical/>
         <horizontal/>
       </border>
@@ -569,7 +603,7 @@
         <name val="Albert Sans"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -617,35 +651,35 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="dotted">
+          <color rgb="FFBFBFBF"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Albert Sans"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="medium">
-          <color rgb="FF000000"/>
+          <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="dotted">
-          <color rgb="FFBFBFBF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Albert Sans"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -783,6 +817,56 @@
         <name val="Albert Sans"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Albert Sans"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="dotted">
+          <color rgb="FFBFBFBF"/>
+        </top>
+        <bottom style="dotted">
+          <color rgb="FFBFBFBF"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Albert Sans"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -811,6 +895,26 @@
         <name val="Albert Sans"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Albert Sans"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -826,66 +930,29 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Albert Sans"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="dotted">
-          <color rgb="FFBFBFBF"/>
-        </top>
+      <border outline="0">
         <bottom style="dotted">
           <color rgb="FFBFBFBF"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Albert Sans"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="dotted">
-          <color rgb="FFBFBFBF"/>
-        </top>
-        <bottom style="dotted">
-          <color rgb="FFBFBFBF"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Albert Sans"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -893,31 +960,6 @@
           <color rgb="FF000000"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="dotted">
-          <color rgb="FFBFBFBF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Albert Sans"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -961,6 +1003,101 @@
       </font>
       <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="dotted">
+          <color rgb="FFBFBFBF"/>
+        </top>
+        <bottom style="dotted">
+          <color rgb="FFBFBFBF"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Albert Sans"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="dotted">
+          <color rgb="FFBFBFBF"/>
+        </top>
+        <bottom style="dotted">
+          <color rgb="FFBFBFBF"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Albert Sans"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Albert Sans"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="4" formatCode="#,##0.00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Albert Sans"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -990,92 +1127,7 @@
         <name val="Albert Sans"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="dotted">
-          <color rgb="FFBFBFBF"/>
-        </top>
-        <bottom style="dotted">
-          <color rgb="FFBFBFBF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Albert Sans"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="dotted">
-          <color rgb="FFBFBFBF"/>
-        </top>
-        <bottom style="dotted">
-          <color rgb="FFBFBFBF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Albert Sans"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="dotted">
-          <color rgb="FFBFBFBF"/>
-        </top>
-        <bottom style="dotted">
-          <color rgb="FFBFBFBF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Albert Sans"/>
-        <scheme val="none"/>
-      </font>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -1083,9 +1135,7 @@
         <top style="dotted">
           <color rgb="FFBFBFBF"/>
         </top>
-        <bottom style="dotted">
-          <color rgb="FFBFBFBF"/>
-        </bottom>
+        <bottom/>
         <vertical/>
         <horizontal/>
       </border>
@@ -1106,6 +1156,7 @@
         <name val="Albert Sans"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -1136,32 +1187,7 @@
         <name val="Albert Sans"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="dotted">
-          <color rgb="FFBFBFBF"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Albert Sans"/>
-        <scheme val="none"/>
-      </font>
+      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -1177,98 +1203,36 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Albert Sans"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="dotted">
-          <color rgb="FFBFBFBF"/>
-        </top>
+      <border outline="0">
         <bottom style="dotted">
           <color rgb="FFBFBFBF"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Albert Sans"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="dotted">
-          <color rgb="FFBFBFBF"/>
-        </top>
-        <bottom style="dotted">
-          <color rgb="FFBFBFBF"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Albert Sans"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
         <bottom style="medium">
-          <color indexed="64"/>
+          <color rgb="FF000000"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="dotted">
-          <color rgb="FFBFBFBF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Albert Sans"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1341,7 +1305,6 @@
         <name val="Albert Sans"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1399,6 +1362,7 @@
         <name val="Albert Sans"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
@@ -1428,6 +1392,36 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="dotted">
+          <color rgb="FFBFBFBF"/>
+        </top>
+        <bottom style="dotted">
+          <color rgb="FFBFBFBF"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Albert Sans"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right/>
@@ -1454,35 +1448,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="dotted">
-          <color rgb="FFBFBFBF"/>
-        </top>
-        <bottom style="dotted">
-          <color rgb="FFBFBFBF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Albert Sans"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -1512,7 +1477,7 @@
         <name val="Albert Sans"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
@@ -1520,12 +1485,97 @@
         <top style="dotted">
           <color rgb="FFBFBFBF"/>
         </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Albert Sans"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="dotted">
+          <color rgb="FFBFBFBF"/>
+        </top>
         <bottom style="dotted">
           <color rgb="FFBFBFBF"/>
         </bottom>
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Albert Sans"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="dotted">
+          <color rgb="FFBFBFBF"/>
+        </top>
+        <bottom style="dotted">
+          <color rgb="FFBFBFBF"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="dotted">
+          <color rgb="FFBFBFBF"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Albert Sans"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1533,31 +1583,6 @@
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="dotted">
-          <color rgb="FFBFBFBF"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Albert Sans"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1597,71 +1622,71 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1B37000D-2595-4553-8B48-52E688D3838F}" name="Tabela2" displayName="Tabela2" ref="A1:J23" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37" headerRowBorderDxfId="35" tableBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{1B37000D-2595-4553-8B48-52E688D3838F}" name="Tabela2" displayName="Tabela2" ref="A1:J23" totalsRowShown="0" headerRowDxfId="50" dataDxfId="48" headerRowBorderDxfId="49" tableBorderDxfId="47">
   <autoFilter ref="A1:J23" xr:uid="{1B37000D-2595-4553-8B48-52E688D3838F}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{BC4E4A7D-FAFF-436F-BC30-C579CC53D5F6}" name="Data Op." dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{968DBB11-6DCD-4814-9712-091AB571AB3E}" name="Cliente" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{3160A2DA-E9DD-41FA-B01D-495A45564384}" name="Ativo" dataDxfId="32"/>
-    <tableColumn id="10" xr3:uid="{2A77DBD8-EFEB-46B4-9798-64F1EA77209D}" name="Moeda" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{48C9E3CF-A2F6-49FA-8BFB-AAC21EFA57E5}" name="ISIN" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{3089232D-DFE8-4EEB-9624-D1D2DA3987C9}" name="Ordem" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{683862A8-E5B3-474E-A1FE-263198B497AB}" name="Quantidade" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{5BCE3BF9-2FFF-4723-99E9-00587B515E35}" name="Financeiro (USD)" dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{E4457BF3-368D-4418-AD73-009E88AC98B3}" name="Taxa" dataDxfId="26"/>
-    <tableColumn id="9" xr3:uid="{7F8F0BAE-F654-4B8E-B451-40A04E491DA5}" name="Data Liquidação" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{BC4E4A7D-FAFF-436F-BC30-C579CC53D5F6}" name="Data Op." dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{968DBB11-6DCD-4814-9712-091AB571AB3E}" name="Cliente" dataDxfId="45"/>
+    <tableColumn id="11" xr3:uid="{8A2D4874-B5C3-46C4-9D72-494458D1D07F}" name="Ordem" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{3160A2DA-E9DD-41FA-B01D-495A45564384}" name="Ativo" dataDxfId="43"/>
+    <tableColumn id="10" xr3:uid="{2A77DBD8-EFEB-46B4-9798-64F1EA77209D}" name="Moeda" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{48C9E3CF-A2F6-49FA-8BFB-AAC21EFA57E5}" name="ISIN" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{683862A8-E5B3-474E-A1FE-263198B497AB}" name="Quantidade" dataDxfId="40"/>
+    <tableColumn id="7" xr3:uid="{5BCE3BF9-2FFF-4723-99E9-00587B515E35}" name="Financeiro (USD)" dataDxfId="39"/>
+    <tableColumn id="8" xr3:uid="{E4457BF3-368D-4418-AD73-009E88AC98B3}" name="Taxa" dataDxfId="38"/>
+    <tableColumn id="9" xr3:uid="{7F8F0BAE-F654-4B8E-B451-40A04E491DA5}" name="Data Liquidação" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{940BD8D4-60E8-4113-A4FF-1283FE05403A}" name="Tabela14" displayName="Tabela14" ref="A1:H5" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" headerRowBorderDxfId="21" tableBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{940BD8D4-60E8-4113-A4FF-1283FE05403A}" name="Tabela14" displayName="Tabela14" ref="A1:H5" totalsRowShown="0" headerRowDxfId="36" dataDxfId="34" headerRowBorderDxfId="35" tableBorderDxfId="33">
   <autoFilter ref="A1:H5" xr:uid="{940BD8D4-60E8-4113-A4FF-1283FE05403A}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{C2B90630-617D-4F9B-B331-DAC082F9C4EE}" name="Data Op." dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{FC9C7D8E-6D48-449D-8C2A-82B97E2F5C3D}" name="Cliente" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{F79A566B-BC48-451D-B8BC-A4685D9FD63B}" name="Ativo" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{0DF3C1B6-8431-48B6-90EB-5E13FF06C3E9}" name="Ordem" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{671D77E5-5254-42D7-92FC-E3F451DE4286}" name="Quantidade" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{435549B0-FED3-4F72-9B1E-82E7131596BA}" name="Preço" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{A7DA8ED8-4834-4373-9BAB-CEA794A94F14}" name="Financeiro (BRL)" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{D4338820-CF04-42A5-8A32-C901508C1062}" name="Data Liquidação" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{C2B90630-617D-4F9B-B331-DAC082F9C4EE}" name="Data Op." dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{FC9C7D8E-6D48-449D-8C2A-82B97E2F5C3D}" name="Cliente" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{478B9379-4769-47D8-A1D1-6059058D3655}" name="Ordem" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{F79A566B-BC48-451D-B8BC-A4685D9FD63B}" name="Ativo" dataDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{671D77E5-5254-42D7-92FC-E3F451DE4286}" name="Quantidade" dataDxfId="28"/>
+    <tableColumn id="9" xr3:uid="{435549B0-FED3-4F72-9B1E-82E7131596BA}" name="Preço" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{A7DA8ED8-4834-4373-9BAB-CEA794A94F14}" name="Financeiro (BRL)" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{D4338820-CF04-42A5-8A32-C901508C1062}" name="Data Liquidação" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1360E394-F9E9-43FA-B040-79414C00D4AF}" name="Tabela145" displayName="Tabela145" ref="A1:I3" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" headerRowBorderDxfId="9" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{1360E394-F9E9-43FA-B040-79414C00D4AF}" name="Tabela145" displayName="Tabela145" ref="A1:I3" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21">
   <autoFilter ref="A1:I3" xr:uid="{1360E394-F9E9-43FA-B040-79414C00D4AF}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{64DDDED5-AEF1-49B5-9267-DF192F6C8545}" name="Data Op." dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{E8A49C6C-A19D-48AB-962F-506FAE6B5F8B}" name="Cliente" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{70A7271D-7B18-41AC-8CEC-53A6B5787584}" name="Ativo" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{C9AE4E0E-5BDE-47B4-8128-23F7710A112E}" name="Ordem" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{8D1DE963-B167-4320-BCF9-9E73578056D8}" name="Quantidade" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{9EA5037A-E455-48CF-91DB-4A13F76429AF}" name="PU" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{C94B7D8A-227D-4BCB-8CB5-85B11A9EDD7A}" name="Taxa" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{2AC05C6C-9DC9-4761-A09C-3C4B947AAF12}" name="Financeiro (BRL)" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{68CFD305-FE98-49D1-87DF-D354AE97E17C}" name="Data Liquidação" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{64DDDED5-AEF1-49B5-9267-DF192F6C8545}" name="Data Op." dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{284D7ADD-F473-4C51-A51A-A5057C20B235}" name="Cliente" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{E8A49C6C-A19D-48AB-962F-506FAE6B5F8B}" name="Ordem" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{70A7271D-7B18-41AC-8CEC-53A6B5787584}" name="Ativo" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{8D1DE963-B167-4320-BCF9-9E73578056D8}" name="Quantidade" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{9EA5037A-E455-48CF-91DB-4A13F76429AF}" name="PU" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{C94B7D8A-227D-4BCB-8CB5-85B11A9EDD7A}" name="Taxa" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{2AC05C6C-9DC9-4761-A09C-3C4B947AAF12}" name="Financeiro (BRL)" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{68CFD305-FE98-49D1-87DF-D354AE97E17C}" name="Data Liquidação" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2DAF82C8-1215-40C1-A39E-4BAB7C201208}" name="Tabela13" displayName="Tabela13" ref="A1:H18" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49" headerRowBorderDxfId="47" tableBorderDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2DAF82C8-1215-40C1-A39E-4BAB7C201208}" name="Tabela13" displayName="Tabela13" ref="A1:H18" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
   <autoFilter ref="A1:H18" xr:uid="{2DAF82C8-1215-40C1-A39E-4BAB7C201208}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{71A20FC3-8ED2-423D-8B21-C98269656209}" name="Data Op." dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{05C9E6DF-190D-4273-9408-D517BAB43FAE}" name="Cliente" dataDxfId="45"/>
-    <tableColumn id="3" xr3:uid="{091DBD03-0DFB-44AD-8C88-10DD6CCC90F8}" name="Ativo" dataDxfId="44"/>
-    <tableColumn id="8" xr3:uid="{50ED1946-3FFD-4C5C-AE36-009092A81301}" name="CNPJ Ativo Investido" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{95A18806-FBA3-49FA-BF04-5E5C0C0CE16B}" name="Ordem" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{B5ADF6C0-FDAE-41DD-B66D-6F8218D3205F}" name="Financeiro (BRL)" dataDxfId="41"/>
-    <tableColumn id="6" xr3:uid="{60017231-4340-4467-8D73-954B67666641}" name="Data Conversão" dataDxfId="40"/>
-    <tableColumn id="7" xr3:uid="{65925FF0-A742-41FA-89A6-7AC78388776F}" name="Data Liquidação" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{71A20FC3-8ED2-423D-8B21-C98269656209}" name="Data Op." dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{897A493D-9423-4B5E-8D6C-159E9DC2AC75}" name="Cliente" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{05C9E6DF-190D-4273-9408-D517BAB43FAE}" name="Ordem" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{091DBD03-0DFB-44AD-8C88-10DD6CCC90F8}" name="Ativo" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{50ED1946-3FFD-4C5C-AE36-009092A81301}" name="CNPJ Ativo Investido" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{B5ADF6C0-FDAE-41DD-B66D-6F8218D3205F}" name="Financeiro (BRL)" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{60017231-4340-4467-8D73-954B67666641}" name="Data Conversão" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{65925FF0-A742-41FA-89A6-7AC78388776F}" name="Data Liquidação" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1986,8 +2011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4E3FE0E-22AC-47FF-8E61-65B27DF71926}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1995,7 +2020,7 @@
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.140625" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
@@ -2012,16 +2037,16 @@
         <v>21</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>30</v>
@@ -2044,16 +2069,16 @@
         <v>33</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>37</v>
       </c>
       <c r="G2" s="10">
         <v>309200</v>
@@ -2076,16 +2101,16 @@
         <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>39</v>
@@ -2108,16 +2133,16 @@
         <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="G4" s="4">
         <v>2500</v>
@@ -2140,16 +2165,16 @@
         <v>33</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="G5" s="4">
         <v>3400</v>
@@ -2172,16 +2197,16 @@
         <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="G6" s="4">
         <v>3150</v>
@@ -2204,16 +2229,16 @@
         <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="G7" s="4">
         <v>2500</v>
@@ -2236,16 +2261,16 @@
         <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="G8" s="4">
         <v>6700</v>
@@ -2268,16 +2293,16 @@
         <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="G9" s="4">
         <v>3500</v>
@@ -2300,16 +2325,16 @@
         <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="E10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="G10" s="4">
         <v>3150</v>
@@ -2332,16 +2357,16 @@
         <v>44</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="E11" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="G11" s="4">
         <v>1500</v>
@@ -2364,16 +2389,16 @@
         <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="E12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="G12" s="4">
         <v>3500</v>
@@ -2396,16 +2421,16 @@
         <v>44</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="E13" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="G13" s="6">
         <v>2650</v>
@@ -2428,16 +2453,16 @@
         <v>0</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="E14" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="G14" s="6">
         <v>1000</v>
@@ -2458,16 +2483,16 @@
         <v>8</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="E15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="G15" s="6">
         <v>1400</v>
@@ -2488,16 +2513,16 @@
         <v>46</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="E16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="G16" s="6">
         <v>460000</v>
@@ -2520,16 +2545,16 @@
         <v>33</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="E17" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="14">
@@ -2550,16 +2575,16 @@
         <v>46</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>39</v>
@@ -2582,16 +2607,16 @@
         <v>44</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>39</v>
@@ -2614,16 +2639,16 @@
         <v>46</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="G20" s="6">
         <v>424000</v>
@@ -2644,16 +2669,16 @@
         <v>46</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="G21" s="6">
         <v>34000</v>
@@ -2673,17 +2698,17 @@
       <c r="B22" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="G22" s="4">
         <v>200000</v>
@@ -2704,16 +2729,16 @@
         <v>46</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6">
@@ -2734,18 +2759,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F09E9CBD-F187-4CF9-8113-C5A5AD446809}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
@@ -2760,10 +2785,10 @@
         <v>21</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>30</v>
@@ -2786,10 +2811,10 @@
         <v>0</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>61</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="E2" s="15">
         <v>95000</v>
@@ -2813,10 +2838,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="E3" s="16">
         <v>5000</v>
@@ -2839,10 +2864,10 @@
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="E4" s="15">
         <v>100</v>
@@ -2866,10 +2891,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="E5" s="15">
         <v>50</v>
@@ -2884,6 +2909,21 @@
       <c r="H5" s="5">
         <v>45870</v>
       </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1">
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="D16" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2897,16 +2937,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F5A604-A9E0-4016-B093-0DDE9BD901A5}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -2918,14 +2957,14 @@
       <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="19" t="s">
         <v>21</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>22</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>30</v>
@@ -2947,14 +2986,14 @@
       <c r="A2" s="8">
         <v>45866</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>65</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>49</v>
       </c>
       <c r="E2" s="15">
         <v>2675</v>
@@ -2975,11 +3014,11 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>65</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="E3" s="15">
         <v>2675</v>
@@ -3003,19 +3042,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A144AA-2864-4374-BACD-B048C3E84C23}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
@@ -3028,14 +3067,14 @@
       <c r="B1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>25</v>
@@ -3054,13 +3093,13 @@
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="E2" s="9"/>
       <c r="F2" s="10">
         <v>8343699.3200000003</v>
       </c>
@@ -3078,13 +3117,13 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="E3" s="3"/>
       <c r="F3" s="4">
         <v>5798823.4699999997</v>
       </c>
@@ -3102,13 +3141,13 @@
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="E4" s="3"/>
       <c r="F4" s="4">
         <v>7288101.1100000003</v>
       </c>
@@ -3127,12 +3166,12 @@
         <v>0</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="E5" s="3"/>
       <c r="F5" s="6">
         <v>2113471.85</v>
       </c>
@@ -3150,13 +3189,13 @@
       <c r="B6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="E6" s="3"/>
       <c r="F6" s="6">
         <v>7000000</v>
       </c>
@@ -3175,12 +3214,12 @@
         <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>7</v>
-      </c>
+      <c r="E7" s="3"/>
       <c r="F7" s="6">
         <v>7000000</v>
       </c>
@@ -3198,14 +3237,14 @@
       <c r="B8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="E8" s="11" t="s">
         <v>10</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>2</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="1">
@@ -3223,13 +3262,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="F9" s="6">
         <v>69735006.969999999</v>
@@ -3248,13 +3287,13 @@
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="4">
         <v>9383819.7899999991</v>
       </c>
@@ -3272,13 +3311,13 @@
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="E11" s="3"/>
       <c r="F11" s="4">
         <v>3200929.04</v>
       </c>
@@ -3296,13 +3335,13 @@
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="E12" s="3"/>
       <c r="F12" s="4">
         <v>4906748.74</v>
       </c>
@@ -3320,13 +3359,13 @@
       <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="4">
         <v>1095211.74</v>
       </c>
@@ -3344,13 +3383,13 @@
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="E14" s="3"/>
       <c r="F14" s="4">
         <v>21092092.789999999</v>
       </c>
@@ -3368,13 +3407,13 @@
       <c r="B15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="E15" s="3"/>
       <c r="F15" s="4">
         <v>5372745.1100000003</v>
       </c>
@@ -3392,13 +3431,13 @@
       <c r="B16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="E16" s="3"/>
       <c r="F16" s="4">
         <v>7481986.7699999996</v>
       </c>
@@ -3416,13 +3455,13 @@
       <c r="B17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="E17" s="3"/>
       <c r="F17" s="4">
         <v>5792215.5800000001</v>
       </c>
@@ -3440,13 +3479,13 @@
       <c r="B18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="E18" s="3"/>
       <c r="F18" s="4">
         <v>2365252.87</v>
       </c>
@@ -3456,6 +3495,60 @@
       <c r="H18" s="1">
         <v>45898</v>
       </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B23" s="19"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="B24" s="20"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="B26" s="20"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="B28" s="20"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="B30" s="20"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="B32" s="20"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="20"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="20"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="20"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
